--- a/Week3/Summary.xlsx
+++ b/Week3/Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\American\automatic-stackoverflow-suggestions\Week3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\automatic-stackoverflow-suggestions\Week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
   <si>
     <t>constructor</t>
   </si>
@@ -409,9 +409,6 @@
     <t>TLE</t>
   </si>
   <si>
-    <t>列1</t>
-  </si>
-  <si>
     <t>shallowRenderer</t>
   </si>
   <si>
@@ -423,6 +420,10 @@
   </si>
   <si>
     <t>SAME AS LINE ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIM &amp; Combine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2521,7 +2522,7 @@
     <tableColumn id="3" name="No Tag Constrain Data rows"/>
     <tableColumn id="4" name="No JS and Tag Constrain"/>
     <tableColumn id="5" name="Github Info"/>
-    <tableColumn id="6" name="列1"/>
+    <tableColumn id="6" name="TRIM &amp; Combine"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2809,7 +2810,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F58"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2819,6 +2820,7 @@
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2838,7 +2840,7 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
         <v>64</v>
@@ -3500,8 +3502,8 @@
       <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="F34" t="s">
-        <v>129</v>
+      <c r="F34">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,8 +3522,8 @@
       <c r="E35" t="s">
         <v>98</v>
       </c>
-      <c r="F35" t="s">
-        <v>129</v>
+      <c r="F35">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3541,7 +3543,7 @@
         <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3561,7 +3563,7 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,7 +3583,7 @@
         <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3601,7 +3603,7 @@
         <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3623,7 @@
         <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3641,7 +3643,7 @@
         <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3661,7 +3663,7 @@
         <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,7 +3683,7 @@
         <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,7 +3703,7 @@
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3721,12 +3723,12 @@
         <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -3740,8 +3742,8 @@
       <c r="E46" t="s">
         <v>98</v>
       </c>
-      <c r="F46" t="s">
-        <v>129</v>
+      <c r="F46">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3761,7 +3763,7 @@
         <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,7 +3783,7 @@
         <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3801,7 +3803,7 @@
         <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,7 +3823,7 @@
         <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3841,7 +3843,7 @@
         <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,7 +3863,7 @@
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3881,7 +3883,7 @@
         <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3901,7 +3903,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3941,7 +3943,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3961,7 +3963,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3981,7 +3983,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4070,7 +4072,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -4084,7 +4086,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68">
         <v>10</v>
